--- a/Cellular_community.xlsx
+++ b/Cellular_community.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin\OneDrive\문서\IMCC1322_RNA-seq Figs\RNA_seq_DEG_2\deg_2_ver3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE9C20-88C6-4024-ACD6-A7325D49758B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987DC43A-C72D-436D-AA18-784F82A4FBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cellular_community" sheetId="1" r:id="rId1"/>
     <sheet name="Cellular_community (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Cellular_community (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Cellular_community (4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cellular_community!$A$1:$Y$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cellular_community (2)'!$A$1:$Y$81</definedName>
-    <definedName name="Cellular_community" localSheetId="1">'Cellular_community (2)'!$A$1:$Y$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cellular_community (2)'!$A$1:$Y$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cellular_community (3)'!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cellular_community (4)'!$A$1:$Y$81</definedName>
+    <definedName name="Cellular_community" localSheetId="1">'Cellular_community (2)'!$A$1:$Y$40</definedName>
+    <definedName name="Cellular_community" localSheetId="2">'Cellular_community (3)'!$A$1:$Y$1</definedName>
+    <definedName name="Cellular_community" localSheetId="3">'Cellular_community (4)'!$A$1:$Y$81</definedName>
     <definedName name="Cellular_community">Cellular_community!$A$1:$Y$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -711,13 +717,25 @@
   </si>
   <si>
     <t>SAR116_1816</t>
+  </si>
+  <si>
+    <t>Quorum sensing (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quorum sensing (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quorum sensing (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +745,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -753,8 +793,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6998,10 +7041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5FC62B-0C1E-43A9-B9EB-2675B25B1552}">
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7009,7 +7052,6091 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.296875" customWidth="1"/>
+    <col min="5" max="5" width="46.296875" customWidth="1"/>
+    <col min="6" max="6" width="141.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1666</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-13.185101844823</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-13.073432846299699</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-13.3239862604132</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-11.387127879297299</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-13.543352275787401</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-10.844814560558</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.111668998523244</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-0.25055341411349202</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.138884415590248</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-2.15622439649005</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2.6985377152293699</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-0.54231331873931399</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-12.148286869244201</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-13.1905469052658</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-11.5495083727533</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>1661</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-14.698195414609501</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-14.477425198862299</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-14.79174985097</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-12.249928689488099</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-15.996524903953</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-11.5902267212713</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.22077021574714101</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-0.31432465210768801</v>
+      </c>
+      <c r="P3" s="2">
+        <v>9.3554436360546903E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-3.7465962144648302</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4.4062981826816499</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-0.65970196821681804</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-13.146602171113001</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-14.6496958176178</v>
+      </c>
+      <c r="V3" s="2">
+        <v>-12.4265829850491</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1657</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-13.781044252649099</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-13.8145387108394</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-13.849852805533599</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-12.4984270021641</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-14.175217309885101</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-11.7651340199026</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-3.3494458190304298E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-3.5314094694203102E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6.8808552884507296E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-1.67679030772107</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2.4100832899825102</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-0.73329298226144002</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-13.0199636689642</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-13.8148717808321</v>
+      </c>
+      <c r="V4" s="2">
+        <v>-12.5103994443324</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>1653</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-11.772152755631801</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-11.765896126311</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-11.7545185356896</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-10.983221207074299</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-11.8728609595092</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-10.899429221488299</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.2566293208310602E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.13775906214039E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-1.7634219942234901E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-0.88963975243490001</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.97343173802085103</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-8.3791985585951495E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-11.4486615837898</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-11.764170661735401</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-11.1899224445177</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6">
+        <v>-12.8528482542749</v>
+      </c>
+      <c r="I6">
+        <v>-12.1456838256255</v>
+      </c>
+      <c r="J6">
+        <v>-13.186285723433899</v>
+      </c>
+      <c r="K6">
+        <v>-12.078651583878599</v>
+      </c>
+      <c r="L6">
+        <v>-12.5856337448643</v>
+      </c>
+      <c r="M6">
+        <v>-11.9372945873462</v>
+      </c>
+      <c r="N6">
+        <v>0.70716442864947504</v>
+      </c>
+      <c r="O6">
+        <v>-1.0406018978084699</v>
+      </c>
+      <c r="P6">
+        <v>0.33343746915899503</v>
+      </c>
+      <c r="Q6">
+        <v>-0.506982160985746</v>
+      </c>
+      <c r="R6">
+        <v>0.64833915751814697</v>
+      </c>
+      <c r="S6">
+        <v>-0.141356996532401</v>
+      </c>
+      <c r="T6">
+        <v>-12.3975762471973</v>
+      </c>
+      <c r="U6">
+        <v>-12.661186483330299</v>
+      </c>
+      <c r="V6">
+        <v>-12.174772659173501</v>
+      </c>
+      <c r="X6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1644</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7">
+        <v>-11.951241199020799</v>
+      </c>
+      <c r="I7">
+        <v>-11.555396629350801</v>
+      </c>
+      <c r="J7">
+        <v>-12.575077877417399</v>
+      </c>
+      <c r="K7">
+        <v>-11.880105904496499</v>
+      </c>
+      <c r="L7">
+        <v>-11.6493027889017</v>
+      </c>
+      <c r="M7">
+        <v>-11.252977827100199</v>
+      </c>
+      <c r="N7">
+        <v>0.39584456967007098</v>
+      </c>
+      <c r="O7">
+        <v>-1.01968124806661</v>
+      </c>
+      <c r="P7">
+        <v>0.623836678396537</v>
+      </c>
+      <c r="Q7">
+        <v>0.23080311559477101</v>
+      </c>
+      <c r="R7">
+        <v>0.39632496180149202</v>
+      </c>
+      <c r="S7">
+        <v>-0.62712807739626297</v>
+      </c>
+      <c r="T7">
+        <v>-11.7557783463349</v>
+      </c>
+      <c r="U7">
+        <v>-11.9683391757452</v>
+      </c>
+      <c r="V7">
+        <v>-11.5705511821351</v>
+      </c>
+      <c r="X7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>-12.431878424786399</v>
+      </c>
+      <c r="I8">
+        <v>-11.5656691829706</v>
+      </c>
+      <c r="J8">
+        <v>-12.6564278221532</v>
+      </c>
+      <c r="K8">
+        <v>-11.6353430817597</v>
+      </c>
+      <c r="L8">
+        <v>-11.9102171428611</v>
+      </c>
+      <c r="M8">
+        <v>-10.859177509817799</v>
+      </c>
+      <c r="N8">
+        <v>0.86620924181574699</v>
+      </c>
+      <c r="O8">
+        <v>-1.0907586391825801</v>
+      </c>
+      <c r="P8">
+        <v>0.22454939736683499</v>
+      </c>
+      <c r="Q8">
+        <v>-0.27487406110138202</v>
+      </c>
+      <c r="R8">
+        <v>1.05103963304337</v>
+      </c>
+      <c r="S8">
+        <v>-0.77616557194198599</v>
+      </c>
+      <c r="T8">
+        <v>-11.7202554372293</v>
+      </c>
+      <c r="U8">
+        <v>-12.137633437232299</v>
+      </c>
+      <c r="V8">
+        <v>-11.396924862312</v>
+      </c>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1669</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9">
+        <v>-11.9130762719281</v>
+      </c>
+      <c r="I9">
+        <v>-11.9944514818045</v>
+      </c>
+      <c r="J9">
+        <v>-11.622935383830001</v>
+      </c>
+      <c r="K9">
+        <v>-13.9965648810839</v>
+      </c>
+      <c r="L9">
+        <v>-12.7931852252143</v>
+      </c>
+      <c r="M9">
+        <v>-13.7704567311054</v>
+      </c>
+      <c r="N9">
+        <v>-8.1375209876383803E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.371516097974464</v>
+      </c>
+      <c r="P9">
+        <v>-0.29014088809807997</v>
+      </c>
+      <c r="Q9">
+        <v>1.20337965586951</v>
+      </c>
+      <c r="R9">
+        <v>-0.97727150589103695</v>
+      </c>
+      <c r="S9">
+        <v>-0.226108149978476</v>
+      </c>
+      <c r="T9">
+        <v>-12.4197150265391</v>
+      </c>
+      <c r="U9">
+        <v>-11.834504711717001</v>
+      </c>
+      <c r="V9">
+        <v>-13.4204587243491</v>
+      </c>
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1596</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>-13.2030597342905</v>
+      </c>
+      <c r="I10">
+        <v>-12.884033110421299</v>
+      </c>
+      <c r="J10">
+        <v>-12.9912621931643</v>
+      </c>
+      <c r="K10">
+        <v>-12.9513198651859</v>
+      </c>
+      <c r="L10">
+        <v>-13.7296109110701</v>
+      </c>
+      <c r="M10">
+        <v>-12.22281585659</v>
+      </c>
+      <c r="N10">
+        <v>0.31902662386921499</v>
+      </c>
+      <c r="O10">
+        <v>-0.10722908274302</v>
+      </c>
+      <c r="P10">
+        <v>-0.211797541126195</v>
+      </c>
+      <c r="Q10">
+        <v>-0.77829104588418496</v>
+      </c>
+      <c r="R10">
+        <v>1.5067950544801401</v>
+      </c>
+      <c r="S10">
+        <v>-0.72850400859595199</v>
+      </c>
+      <c r="T10">
+        <v>-12.9274025922796</v>
+      </c>
+      <c r="U10">
+        <v>-13.020105248911401</v>
+      </c>
+      <c r="V10">
+        <v>-12.8402987413695</v>
+      </c>
+      <c r="X10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1598</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>-14.283979729674099</v>
+      </c>
+      <c r="I11">
+        <v>-14.130354678112599</v>
+      </c>
+      <c r="J11">
+        <v>-14.557984134304199</v>
+      </c>
+      <c r="K11">
+        <v>-12.878928674695601</v>
+      </c>
+      <c r="L11">
+        <v>-13.9940734249589</v>
+      </c>
+      <c r="M11">
+        <v>-12.3230623924568</v>
+      </c>
+      <c r="N11">
+        <v>0.153625051561494</v>
+      </c>
+      <c r="O11">
+        <v>-0.42762945619158199</v>
+      </c>
+      <c r="P11">
+        <v>0.27400440463008802</v>
+      </c>
+      <c r="Q11">
+        <v>-1.1151447502632501</v>
+      </c>
+      <c r="R11">
+        <v>1.6710110325021299</v>
+      </c>
+      <c r="S11">
+        <v>-0.55586628223887202</v>
+      </c>
+      <c r="T11">
+        <v>-13.4489572955263</v>
+      </c>
+      <c r="U11">
+        <v>-14.313429451005801</v>
+      </c>
+      <c r="V11">
+        <v>-12.912155706907001</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>1617</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-13.03800048802</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-12.8595219017184</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-12.007414085640301</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-11.808315221428501</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-11.208400319746801</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-11.2191722671318</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.17847858630163099</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.85210781607808495</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1.03058640237972</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.59991490168166595</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1.07719473850078E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-0.58914295429665797</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-11.8572125582954</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-12.5613442886148</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-11.386089408587999</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>1623</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-15.318925608781999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-14.668579119006999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-15.058786187361299</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-12.791050569818299</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-14.504453729618101</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-12.1919724408243</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.65034648977501397</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-0.390207068354336</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-0.26013942142067797</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1.7134031597997901</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.3124812887937498</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-0.59907812899395196</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-13.5798775092083</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-14.9904186359398</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-12.880477408625801</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>1625</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-15.2426528673851</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-14.585833103419899</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-14.8995875925121</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-12.3105354541923</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-13.706349288349999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-11.584675423751101</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.65681976396521702</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-0.31375448909214398</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-0.34306527487307298</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1.39581383415774</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.1216738645989901</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-0.72586003044124703</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-13.0726848142056</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-14.8846121990381</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-12.294316565367099</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>1635</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-15.391464156340501</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-14.6299256876031</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-15.127733541078801</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-12.637830058829501</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-14.0643402881805</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-12.0563589624323</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.76153846873738695</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-0.49780785347571899</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-0.26373061526166802</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-1.4265102293510701</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2.0079813257482901</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-0.58147109639721895</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-13.437839463497101</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-15.0144786267411</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-12.702544314757301</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>1637</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-15.247453853649001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-14.791170933352999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-15.078151512228301</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-12.7218744107803</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-13.4810932395532</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-12.343831257551299</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.45628292029597001</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-0.28698057887526002</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-0.16930234142070899</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-0.75921882877282598</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.1372619820018499</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-0.37804315322902199</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-13.500457494537001</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-15.026497884475701</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-12.775570703693999</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1671</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17">
+        <v>-11.583350320514301</v>
+      </c>
+      <c r="I17">
+        <v>-11.7170776366982</v>
+      </c>
+      <c r="J17">
+        <v>-11.123483604438899</v>
+      </c>
+      <c r="K17">
+        <v>-13.761461407997899</v>
+      </c>
+      <c r="L17">
+        <v>-12.929996336290399</v>
+      </c>
+      <c r="M17">
+        <v>-13.246220460924899</v>
+      </c>
+      <c r="N17">
+        <v>-0.133727316183924</v>
+      </c>
+      <c r="O17">
+        <v>0.59359403225927299</v>
+      </c>
+      <c r="P17">
+        <v>-0.45986671607534801</v>
+      </c>
+      <c r="Q17">
+        <v>0.83146507170747597</v>
+      </c>
+      <c r="R17">
+        <v>-0.31622412463452398</v>
+      </c>
+      <c r="S17">
+        <v>-0.51524094707295198</v>
+      </c>
+      <c r="T17">
+        <v>-12.092140785928899</v>
+      </c>
+      <c r="U17">
+        <v>-11.451590397948401</v>
+      </c>
+      <c r="V17">
+        <v>-13.273040883186001</v>
+      </c>
+      <c r="W17" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>1665</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-11.001552597618399</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-10.471562657330001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-11.5932469906358</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-11.841755731507099</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-11.364692063704</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-11.296292868788001</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.52998994028837898</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-1.12168433330577</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.59169439301739002</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.477063667803104</v>
+      </c>
+      <c r="R18" s="2">
+        <v>6.8399194916049302E-2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>-0.54546286271915301</v>
+      </c>
+      <c r="T18" s="2">
+        <v>-11.1917987190579</v>
+      </c>
+      <c r="U18" s="2">
+        <v>-10.9507689497659</v>
+      </c>
+      <c r="V18" s="2">
+        <v>-11.481336637632699</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>1659</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-11.3439334799256</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-10.871725451398801</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-11.9399835092891</v>
+      </c>
+      <c r="K19" s="2">
+        <v>-12.3963625023024</v>
+      </c>
+      <c r="L19" s="2">
+        <v>-10.853428075870999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-11.864600696345001</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.472208028526796</v>
+      </c>
+      <c r="O19" s="2">
+        <v>-1.0682580578902801</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.59605002936348195</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1.54293442643145</v>
+      </c>
+      <c r="R19" s="2">
+        <v>-1.0111726204740299</v>
+      </c>
+      <c r="S19" s="2">
+        <v>-0.53176180595741895</v>
+      </c>
+      <c r="T19" s="2">
+        <v>-11.4350089498651</v>
+      </c>
+      <c r="U19" s="2">
+        <v>-11.320657418408</v>
+      </c>
+      <c r="V19" s="2">
+        <v>-11.559210607219599</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>1655</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-11.1385112849882</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-10.5593389601026</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-11.8199993277742</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-12.2205540873546</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-12.0886532168134</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-11.6061444961415</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.57917232488558001</v>
+      </c>
+      <c r="O20" s="2">
+        <v>-1.2606603676716099</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.68148804278603403</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.131900870541281</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.48250872067188899</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-0.61440959121316996</v>
+      </c>
+      <c r="T20" s="2">
+        <v>-11.4512699744283</v>
+      </c>
+      <c r="U20" s="2">
+        <v>-11.083077876205399</v>
+      </c>
+      <c r="V20" s="2">
+        <v>-11.9468719766828</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>1652</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-7.0664175803749503</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-8.0977735614276103</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-7.0329083904289202</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-8.61345702481246</v>
+      </c>
+      <c r="L21" s="2">
+        <v>-8.4055687529990095</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-9.3227957780399606</v>
+      </c>
+      <c r="N21" s="2">
+        <v>-1.03135598105267</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1.06486517099869</v>
+      </c>
+      <c r="P21" s="2">
+        <v>-3.3509189946024302E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.20788827181345099</v>
+      </c>
+      <c r="R21" s="2">
+        <v>-0.917227025040948</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.70933875322749695</v>
+      </c>
+      <c r="T21" s="2">
+        <v>-7.8608122794795996</v>
+      </c>
+      <c r="U21" s="2">
+        <v>-7.3221136679657599</v>
+      </c>
+      <c r="V21" s="2">
+        <v>-8.7303071592464399</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1599</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <v>-10.467931466905201</v>
+      </c>
+      <c r="I22">
+        <v>-10.0550864309927</v>
+      </c>
+      <c r="J22">
+        <v>-10.3075545786636</v>
+      </c>
+      <c r="K22">
+        <v>-11.6146200196686</v>
+      </c>
+      <c r="L22">
+        <v>-10.140491151628</v>
+      </c>
+      <c r="M22">
+        <v>-11.3373536934801</v>
+      </c>
+      <c r="N22">
+        <v>0.41284503591246102</v>
+      </c>
+      <c r="O22">
+        <v>-0.25246814767089298</v>
+      </c>
+      <c r="P22">
+        <v>-0.16037688824156801</v>
+      </c>
+      <c r="Q22">
+        <v>1.47412886804057</v>
+      </c>
+      <c r="R22">
+        <v>-1.1968625418520999</v>
+      </c>
+      <c r="S22">
+        <v>-0.27726632618846397</v>
+      </c>
+      <c r="T22">
+        <v>-10.5412489453827</v>
+      </c>
+      <c r="U22">
+        <v>-10.2667628302866</v>
+      </c>
+      <c r="V22">
+        <v>-10.880526867679899</v>
+      </c>
+      <c r="W22"/>
+      <c r="X22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1606</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>-12.0974358309342</v>
+      </c>
+      <c r="I23">
+        <v>-11.9438438136262</v>
+      </c>
+      <c r="J23">
+        <v>-12.803789100592899</v>
+      </c>
+      <c r="K23">
+        <v>-12.328903809676</v>
+      </c>
+      <c r="L23">
+        <v>-13.222499882484</v>
+      </c>
+      <c r="M23">
+        <v>-11.936206581984701</v>
+      </c>
+      <c r="N23">
+        <v>0.15359201730803701</v>
+      </c>
+      <c r="O23">
+        <v>-0.85994528696675399</v>
+      </c>
+      <c r="P23">
+        <v>0.70635326965871703</v>
+      </c>
+      <c r="Q23">
+        <v>-0.89359607280799502</v>
+      </c>
+      <c r="R23">
+        <v>1.28629330049927</v>
+      </c>
+      <c r="S23">
+        <v>-0.39269722769127702</v>
+      </c>
+      <c r="T23">
+        <v>-12.316792065768499</v>
+      </c>
+      <c r="U23">
+        <v>-12.2360347075251</v>
+      </c>
+      <c r="V23">
+        <v>-12.4023394097389</v>
+      </c>
+      <c r="W23"/>
+      <c r="X23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1608</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24">
+        <v>-11.553873971925499</v>
+      </c>
+      <c r="I24">
+        <v>-11.186715368358101</v>
+      </c>
+      <c r="J24">
+        <v>-12.3635346922719</v>
+      </c>
+      <c r="K24">
+        <v>-11.999120585987599</v>
+      </c>
+      <c r="L24">
+        <v>-13.165530112542401</v>
+      </c>
+      <c r="M24">
+        <v>-11.434250141571599</v>
+      </c>
+      <c r="N24">
+        <v>0.36715860356746699</v>
+      </c>
+      <c r="O24">
+        <v>-1.1768193239138001</v>
+      </c>
+      <c r="P24">
+        <v>0.80966072034632897</v>
+      </c>
+      <c r="Q24">
+        <v>-1.16640952655479</v>
+      </c>
+      <c r="R24">
+        <v>1.73127997097076</v>
+      </c>
+      <c r="S24">
+        <v>-0.56487044441597201</v>
+      </c>
+      <c r="T24">
+        <v>-11.814469731494301</v>
+      </c>
+      <c r="U24">
+        <v>-11.622656862863799</v>
+      </c>
+      <c r="V24">
+        <v>-12.0357532866404</v>
+      </c>
+      <c r="W24"/>
+      <c r="X24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1601</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25">
+        <v>-8.1587539368911806</v>
+      </c>
+      <c r="I25">
+        <v>-9.1250131185916104</v>
+      </c>
+      <c r="J25">
+        <v>-8.4869829903837797</v>
+      </c>
+      <c r="K25">
+        <v>-10.7224021938632</v>
+      </c>
+      <c r="L25">
+        <v>-8.9718186654685006</v>
+      </c>
+      <c r="M25">
+        <v>-10.8563449082028</v>
+      </c>
+      <c r="N25">
+        <v>-0.96625918170042702</v>
+      </c>
+      <c r="O25">
+        <v>0.638030128207833</v>
+      </c>
+      <c r="P25">
+        <v>0.32822905349259501</v>
+      </c>
+      <c r="Q25">
+        <v>1.7505835283947</v>
+      </c>
+      <c r="R25">
+        <v>-1.8845262427342899</v>
+      </c>
+      <c r="S25">
+        <v>0.13394271433958899</v>
+      </c>
+      <c r="T25">
+        <v>-9.0652775503434899</v>
+      </c>
+      <c r="U25">
+        <v>-8.5368575028255496</v>
+      </c>
+      <c r="V25">
+        <v>-9.9078425076507202</v>
+      </c>
+      <c r="W25" t="s">
+        <v>50</v>
+      </c>
+      <c r="X25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1611</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>-10.3934582064726</v>
+      </c>
+      <c r="I26">
+        <v>-10.1613273908171</v>
+      </c>
+      <c r="J26">
+        <v>-11.120500395477301</v>
+      </c>
+      <c r="K26">
+        <v>-11.6664888221969</v>
+      </c>
+      <c r="L26">
+        <v>-10.030191125838799</v>
+      </c>
+      <c r="M26">
+        <v>-11.5225292176618</v>
+      </c>
+      <c r="N26">
+        <v>0.23213081565546101</v>
+      </c>
+      <c r="O26">
+        <v>-0.95917300466016198</v>
+      </c>
+      <c r="P26">
+        <v>0.72704218900469997</v>
+      </c>
+      <c r="Q26">
+        <v>1.63629769635802</v>
+      </c>
+      <c r="R26">
+        <v>-1.4923380918229501</v>
+      </c>
+      <c r="S26">
+        <v>-0.14395960453507101</v>
+      </c>
+      <c r="T26">
+        <v>-10.675065164071</v>
+      </c>
+      <c r="U26">
+        <v>-10.504005574816601</v>
+      </c>
+      <c r="V26">
+        <v>-10.869170310107499</v>
+      </c>
+      <c r="W26"/>
+      <c r="X26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>1626</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-12.1662278644973</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-11.434433269461399</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-12.753788488423799</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-11.9176890873046</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-13.3936808836681</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-11.4068635973632</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.73179459503598698</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-1.31935521896249</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.58756062392649899</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-1.4759917963634901</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.9868172863048701</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-0.510825489941379</v>
+      </c>
+      <c r="T27" s="1">
+        <v>-12.021313684661401</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-12.0173281350356</v>
+      </c>
+      <c r="V27" s="1">
+        <v>-12.0253102751652</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>1622</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-12.340563258040399</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-11.5113902919508</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-13.0296278192932</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-12.4124537790542</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-13.666766694643201</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-11.9531635719917</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.82917296608962898</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-1.51823752734241</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.68906456125278104</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-1.2543129155889801</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.71360312265153</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-0.45929020706255103</v>
+      </c>
+      <c r="T28" s="1">
+        <v>-12.3273599615693</v>
+      </c>
+      <c r="U28" s="1">
+        <v>-12.161297464826101</v>
+      </c>
+      <c r="V28" s="1">
+        <v>-12.5150541087524</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>1638</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-13.245651611015001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-12.328371677703601</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-14.0091554196367</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-12.9662444297409</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-14.6320477588036</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-12.551392327486701</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.91727993331134805</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-1.68078374193309</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.76350380862174505</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-1.6658033290626799</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2.0806554313169201</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-0.41485210225423802</v>
+      </c>
+      <c r="T29" s="1">
+        <v>-13.0882017002314</v>
+      </c>
+      <c r="U29" s="1">
+        <v>-13.032515802488399</v>
+      </c>
+      <c r="V29" s="1">
+        <v>-13.146123585944199</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>1634</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-12.966002873246699</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-11.9896558152028</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-13.3799630741917</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-12.8291955845453</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-13.964976068078199</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-12.427736834613</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.97634705804382504</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-1.3903072589888399</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.41396020094501002</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-1.13578048353285</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.5372392334651901</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-0.40145874993233399</v>
+      </c>
+      <c r="T30" s="1">
+        <v>-12.791790582191499</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-12.656423996049799</v>
+      </c>
+      <c r="V30" s="1">
+        <v>-12.9411861542065</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-8.0746930051126995</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-8.7097200133113599</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-7.9831822503720797</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-10.2735186454483</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-8.5229433907203607</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-10.7473731179923</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-0.63502700819865998</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.72653776293927197</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-9.1510754740612404E-2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1.75057525472798</v>
+      </c>
+      <c r="R31" s="1">
+        <v>-2.22442972727197</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.47385447254399499</v>
+      </c>
+      <c r="T31" s="1">
+        <v>-8.7272181372295901</v>
+      </c>
+      <c r="U31" s="1">
+        <v>-8.2216745931225006</v>
+      </c>
+      <c r="V31" s="1">
+        <v>-9.5122431889612198</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>1639</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-13.3025954078414</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-12.796279467726601</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-13.5111718454125</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-12.440835580424</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-13.1314544840391</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-12.372977603210799</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.50631594011486103</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-0.71489237768590697</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.20857643757104699</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>-0.69061890361505296</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.75847688082824305</v>
+      </c>
+      <c r="S32" s="1">
+        <v>-6.7857977213189299E-2</v>
+      </c>
+      <c r="T32" s="1">
+        <v>-12.863631463958599</v>
+      </c>
+      <c r="U32" s="1">
+        <v>-13.171309239401999</v>
+      </c>
+      <c r="V32" s="1">
+        <v>-12.6101760759458</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>1621</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-12.629606862245099</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-12.369657716060701</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-12.8845928542822</v>
+      </c>
+      <c r="K33" s="1">
+        <v>-12.1073153421307</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-12.246370538030201</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-11.631015403114001</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.25994914618442899</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-0.51493513822153003</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.25498599203710098</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>-0.139055195899531</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.61535513491627603</v>
+      </c>
+      <c r="S33" s="1">
+        <v>-0.476299939016745</v>
+      </c>
+      <c r="T33" s="1">
+        <v>-12.255916128511201</v>
+      </c>
+      <c r="U33" s="1">
+        <v>-12.612667619801</v>
+      </c>
+      <c r="V33" s="1">
+        <v>-11.9701245050907</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>1618</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-11.033069966847799</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-11.291181621944601</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-11.173537230691901</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-11.2779729057744</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-11.0986588731424</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-11.809271572943</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-0.258111655096807</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.1176443912527</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.14046726384410699</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.17931403263198001</v>
+      </c>
+      <c r="R34" s="1">
+        <v>-0.71061269980056896</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.53129866716858998</v>
+      </c>
+      <c r="T34" s="1">
+        <v>-11.2599916338112</v>
+      </c>
+      <c r="U34" s="1">
+        <v>-11.1620638208102</v>
+      </c>
+      <c r="V34" s="1">
+        <v>-11.3650538379485</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>1627</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-12.470297187644499</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-12.102763292839599</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-12.813391940663299</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-12.270621084641199</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-13.120049720766801</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-11.885449253395301</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.36753389480481902</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-0.71062864782361701</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.34309475301879799</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-0.84942863612558595</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1.2346004673715201</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-0.38517183124593701</v>
+      </c>
+      <c r="T35" s="1">
+        <v>-12.3852793774315</v>
+      </c>
+      <c r="U35" s="1">
+        <v>-12.4330349321498</v>
+      </c>
+      <c r="V35" s="1">
+        <v>-12.339054090223399</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>1633</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-13.0224874886487</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-12.8037425043024</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-12.831250462748899</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-12.797709174134701</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-13.7889294845446</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-12.4775166961743</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.21874498434628301</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-2.7507958446509901E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>-0.19123702589977401</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-0.9912203104099</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1.3114127883703299</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-0.32019247796042999</v>
+      </c>
+      <c r="T36" s="1">
+        <v>-12.902375120595</v>
+      </c>
+      <c r="U36" s="1">
+        <v>-12.8825975860266</v>
+      </c>
+      <c r="V36" s="1">
+        <v>-12.922427553159199</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>1664</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-13.636281473605001</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-12.9221064390964</v>
+      </c>
+      <c r="J37" s="2">
+        <v>-14.1340528461491</v>
+      </c>
+      <c r="K37" s="2">
+        <v>-12.700919866062801</v>
+      </c>
+      <c r="L37" s="2">
+        <v>-14.5907177307277</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-12.1997848879346</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.71417503450855302</v>
+      </c>
+      <c r="O37" s="2">
+        <v>-1.21194640705269</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.49777137254413401</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>-1.8897978646648701</v>
+      </c>
+      <c r="R37" s="2">
+        <v>2.3909328427930499</v>
+      </c>
+      <c r="S37" s="2">
+        <v>-0.50113497812818597</v>
+      </c>
+      <c r="T37" s="2">
+        <v>-13.1365357725685</v>
+      </c>
+      <c r="U37" s="2">
+        <v>-13.477623543110701</v>
+      </c>
+      <c r="V37" s="2">
+        <v>-12.860868166111899</v>
+      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>1662</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-13.460857491758199</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-12.983286290327101</v>
+      </c>
+      <c r="J38" s="2">
+        <v>-14.146775107084199</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-12.623957884247901</v>
+      </c>
+      <c r="L38" s="2">
+        <v>-15.2713847451836</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-12.094082542467801</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.47757120143104198</v>
+      </c>
+      <c r="O38" s="2">
+        <v>-1.16348881675709</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.685917615326047</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>-2.6474268609356399</v>
+      </c>
+      <c r="R38" s="2">
+        <v>3.1773022027158002</v>
+      </c>
+      <c r="S38" s="2">
+        <v>-0.52987534178016404</v>
+      </c>
+      <c r="T38" s="2">
+        <v>-13.107677969294899</v>
+      </c>
+      <c r="U38" s="2">
+        <v>-13.4541367939333</v>
+      </c>
+      <c r="V38" s="2">
+        <v>-12.8285184467981</v>
+      </c>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>1658</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-12.957127756147401</v>
+      </c>
+      <c r="I39" s="2">
+        <v>-12.7976758495496</v>
+      </c>
+      <c r="J39" s="2">
+        <v>-12.991835943436699</v>
+      </c>
+      <c r="K39" s="2">
+        <v>-12.213117498512901</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-14.3135541994275</v>
+      </c>
+      <c r="M39" s="2">
+        <v>-11.664407459438699</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.159451906597812</v>
+      </c>
+      <c r="O39" s="2">
+        <v>-0.194160093887079</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3.4708187289266702E-2</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>-2.1004367009146501</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2.6491467399887698</v>
+      </c>
+      <c r="S39" s="2">
+        <v>-0.54871003907412397</v>
+      </c>
+      <c r="T39" s="2">
+        <v>-12.614504563878301</v>
+      </c>
+      <c r="U39" s="2">
+        <v>-12.913040533788401</v>
+      </c>
+      <c r="V39" s="2">
+        <v>-12.367278314718201</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>1654</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-8.9837934139407807</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-9.5159799937249598</v>
+      </c>
+      <c r="J40" s="2">
+        <v>-9.0241522708353994</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-10.8102775000339</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-8.5132300888597996</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-10.814010311022599</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-0.53218657978417605</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.491827722889559</v>
+      </c>
+      <c r="P40" s="2">
+        <v>4.0358856894616699E-2</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>2.2970474111741499</v>
+      </c>
+      <c r="R40" s="2">
+        <v>-2.30078022216283</v>
+      </c>
+      <c r="S40" s="2">
+        <v>3.7328109886804401E-3</v>
+      </c>
+      <c r="T40" s="2">
+        <v>-9.3631311312021506</v>
+      </c>
+      <c r="U40" s="2">
+        <v>-9.1552057436792804</v>
+      </c>
+      <c r="V40" s="2">
+        <v>-9.6061523580037402</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Y47" xr:uid="{756D4C88-9AC6-4492-940B-6885E5D0FF79}">
+    <sortState ref="A2:Y81">
+      <sortCondition ref="E1:E47"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:Y48">
+    <sortCondition ref="F2:F48"/>
+    <sortCondition ref="E2:E48"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39622ACB-6AC8-43D9-ADDC-EF690AEB1251}">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" customWidth="1"/>
+    <col min="6" max="6" width="82.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-7.8179215748813302</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-7.7501100876343996</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-8.0239505504477595</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-10.2248475479783</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-7.6212046704357101</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-10.543500784626699</v>
+      </c>
+      <c r="N2" s="1">
+        <v>6.7811487246936406E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-0.27384046281336699</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.20602897556643099</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.6036428775426401</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-2.92229611419098</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.318653236648345</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-8.2650924783287092</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-7.8593655928240302</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-8.8316120971062109</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1620</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-10.3815350390968</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-10.138146294052101</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-10.655859406779699</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-12.247647748236901</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-11.0150449919238</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-11.989379096971801</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.24338874504465399</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-0.51771311272760001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.27432436768294599</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.2326027563131401</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-0.97433410504799001</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-0.25826865126514598</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-10.876452562289</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-10.3764429547633</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-11.6480290603353</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>1628</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-10.000349164082399</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-9.6948995396330293</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-10.5136415094236</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-11.7739900825218</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-10.1060848291251</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-11.352876397154301</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.30544962444932799</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-0.81874196979061598</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.51329234534128798</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.6679052533968</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1.24679156802928</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-0.42111368536751498</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-10.399498531863401</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-10.0312506487544</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-10.8952020579876</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1636</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-10.648632121242599</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-10.4902567321848</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-11.098707004614999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-12.192496697662801</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-10.748468261394001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-11.6734441005775</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.158375389057788</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-0.60845027243021099</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.45007488337242202</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.44402843626886</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.92497583918350501</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-0.519052597085357</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-11.027072244622</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-10.723627985392399</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-11.411820063129101</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1640</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-10.796462597812299</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-10.5242399040128</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-11.25314978253</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-11.8463503055844</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-11.1499258421902</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-11.3510628267824</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.272222693799548</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-0.72890987851724698</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.45668718471769898</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.69642446339415198</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.20113698459218399</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-0.495287478801967</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-11.093693097480701</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-10.827413673924999</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-11.420502445636901</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1668</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7">
+        <v>-10.3606598636737</v>
+      </c>
+      <c r="I7">
+        <v>-10.450085217295699</v>
+      </c>
+      <c r="J7">
+        <v>-10.556710231315501</v>
+      </c>
+      <c r="K7">
+        <v>-11.484035909858401</v>
+      </c>
+      <c r="L7">
+        <v>-11.0963563497886</v>
+      </c>
+      <c r="M7">
+        <v>-11.1204087076164</v>
+      </c>
+      <c r="N7">
+        <v>-8.9425353622025902E-2</v>
+      </c>
+      <c r="O7">
+        <v>-0.106625014019832</v>
+      </c>
+      <c r="P7">
+        <v>0.19605036764185799</v>
+      </c>
+      <c r="Q7">
+        <v>0.38767956006982002</v>
+      </c>
+      <c r="R7">
+        <v>-2.4052357827768201E-2</v>
+      </c>
+      <c r="S7">
+        <v>-0.36362720224205197</v>
+      </c>
+      <c r="T7">
+        <v>-10.7876151001553</v>
+      </c>
+      <c r="U7">
+        <v>-10.4535978661944</v>
+      </c>
+      <c r="V7">
+        <v>-11.2230290408864</v>
+      </c>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>1667</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-13.638644610973399</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-13.8673202722788</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-14.3852297633712</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-12.3042008884022</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-14.0237697401439</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-11.732186714177701</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-0.228675661305351</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-0.51790949109238804</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.74658515239773904</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-1.7195688517416701</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2.2915830259661898</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-0.57201417422452105</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-12.977837524596501</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-13.931160705209001</v>
+      </c>
+      <c r="V8" s="2">
+        <v>-12.4087757001467</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-13.5544316070704</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-13.6891648909778</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-14.485088512736001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-11.9152735236748</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-13.9270705696399</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-11.4692309915017</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-0.13473328390741701</v>
+      </c>
+      <c r="O9" s="2">
+        <v>-0.79592362175820996</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.93065690566562698</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-2.0117970459651402</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2.4578395781381799</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-0.44604253217303302</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-12.738035734447999</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-13.8552012296015</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-12.116041259396001</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>1660</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-12.937113733036799</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-13.945648632963801</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-13.673815413384601</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-12.115610688651101</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-13.918909848659</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-11.5253896817872</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-1.0085348999269399</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.27183321957912598</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.73670168034781103</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-1.80329916000791</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2.39352016687182</v>
+      </c>
+      <c r="S10" s="2">
+        <v>-0.59022100686391199</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-12.708283791431599</v>
+      </c>
+      <c r="U10" s="2">
+        <v>-13.453638934933</v>
+      </c>
+      <c r="V10" s="2">
+        <v>-12.2192763242985</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>1656</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-13.5004245761381</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-14.2286341956931</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-14.2847898622502</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-11.6463179932265</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-14.429668340190499</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-10.9617173976174</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-0.72820961955501295</v>
+      </c>
+      <c r="O11" s="2">
+        <v>-5.6155666557077197E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.78436528611209</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-2.7833503469639398</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3.4679509425730801</v>
+      </c>
+      <c r="S11" s="2">
+        <v>-0.684600595609137</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-12.4842430098061</v>
+      </c>
+      <c r="U11" s="2">
+        <v>-13.9582425344979</v>
+      </c>
+      <c r="V11" s="2">
+        <v>-11.7705321947318</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>1651</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-10.585058438239001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-11.715097272569899</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-11.580893032876499</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-11.6058290274251</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-12.0614500801203</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-11.372609615696801</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-1.13003883433092</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.134204239693448</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.99583459463747304</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-0.45562105269519998</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.688840464423502</v>
+      </c>
+      <c r="S12" s="2">
+        <v>-0.23321941172830199</v>
+      </c>
+      <c r="T12" s="2">
+        <v>-11.408771700383801</v>
+      </c>
+      <c r="U12" s="2">
+        <v>-11.200382949540399</v>
+      </c>
+      <c r="V12" s="2">
+        <v>-11.6524265564424</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1645</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13">
+        <v>-12.6327440095338</v>
+      </c>
+      <c r="I13">
+        <v>-13.078515746593</v>
+      </c>
+      <c r="J13">
+        <v>-12.558409018725101</v>
+      </c>
+      <c r="K13">
+        <v>-13.1613920148865</v>
+      </c>
+      <c r="L13">
+        <v>-12.5814874046741</v>
+      </c>
+      <c r="M13">
+        <v>-12.7464192699967</v>
+      </c>
+      <c r="N13">
+        <v>-0.44577173705921103</v>
+      </c>
+      <c r="O13">
+        <v>0.52010672786785594</v>
+      </c>
+      <c r="P13">
+        <v>-7.4334990808645293E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.57990461021235895</v>
+      </c>
+      <c r="R13">
+        <v>-0.164931865322543</v>
+      </c>
+      <c r="S13">
+        <v>-0.414972744889816</v>
+      </c>
+      <c r="T13">
+        <v>-12.7739225140689</v>
+      </c>
+      <c r="U13">
+        <v>-12.7389587870938</v>
+      </c>
+      <c r="V13">
+        <v>-12.8097546773965</v>
+      </c>
+      <c r="X13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1674</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14">
+        <v>-12.7867112898593</v>
+      </c>
+      <c r="I14">
+        <v>-13.665176534786101</v>
+      </c>
+      <c r="J14">
+        <v>-12.8639636827813</v>
+      </c>
+      <c r="K14">
+        <v>-12.6874608265541</v>
+      </c>
+      <c r="L14">
+        <v>-14.008845175588799</v>
+      </c>
+      <c r="M14">
+        <v>-12.292111141104</v>
+      </c>
+      <c r="N14">
+        <v>-0.87846524492682798</v>
+      </c>
+      <c r="O14">
+        <v>0.80121285200479997</v>
+      </c>
+      <c r="P14">
+        <v>7.7252392922028706E-2</v>
+      </c>
+      <c r="Q14">
+        <v>-1.3213843490347701</v>
+      </c>
+      <c r="R14">
+        <v>1.7167340344848501</v>
+      </c>
+      <c r="S14">
+        <v>-0.39534968545008098</v>
+      </c>
+      <c r="T14">
+        <v>-12.938553523942</v>
+      </c>
+      <c r="U14">
+        <v>-13.0544815146859</v>
+      </c>
+      <c r="V14">
+        <v>-12.831252054960199</v>
+      </c>
+      <c r="X14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15">
+        <v>-11.6095731612628</v>
+      </c>
+      <c r="I15">
+        <v>-11.657549935311399</v>
+      </c>
+      <c r="J15">
+        <v>-11.6625810209768</v>
+      </c>
+      <c r="K15">
+        <v>-11.730342197619001</v>
+      </c>
+      <c r="L15">
+        <v>-11.723760248737999</v>
+      </c>
+      <c r="M15">
+        <v>-11.494632605786601</v>
+      </c>
+      <c r="N15">
+        <v>-4.7976774048632702E-2</v>
+      </c>
+      <c r="O15">
+        <v>-5.0310856653494598E-3</v>
+      </c>
+      <c r="P15">
+        <v>5.3007859713982301E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.5819488810047498E-3</v>
+      </c>
+      <c r="R15">
+        <v>0.22912764295138899</v>
+      </c>
+      <c r="S15">
+        <v>-0.23570959183239401</v>
+      </c>
+      <c r="T15">
+        <v>-11.644189801506901</v>
+      </c>
+      <c r="U15">
+        <v>-11.6430361529431</v>
+      </c>
+      <c r="V15">
+        <v>-11.6453443733221</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1609</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16">
+        <v>-13.1023198887746</v>
+      </c>
+      <c r="I16">
+        <v>-13.0836166182858</v>
+      </c>
+      <c r="J16">
+        <v>-13.24594572622</v>
+      </c>
+      <c r="K16">
+        <v>-11.7899437841553</v>
+      </c>
+      <c r="L16">
+        <v>-13.6824696528369</v>
+      </c>
+      <c r="M16">
+        <v>-11.1173227277426</v>
+      </c>
+      <c r="N16">
+        <v>1.87032704888196E-2</v>
+      </c>
+      <c r="O16">
+        <v>-0.162329107934158</v>
+      </c>
+      <c r="P16">
+        <v>0.14362583744533899</v>
+      </c>
+      <c r="Q16">
+        <v>-1.89252586868157</v>
+      </c>
+      <c r="R16">
+        <v>2.5651469250942598</v>
+      </c>
+      <c r="S16">
+        <v>-0.67262105641268399</v>
+      </c>
+      <c r="T16">
+        <v>-12.361132625822499</v>
+      </c>
+      <c r="U16">
+        <v>-13.142159270139</v>
+      </c>
+      <c r="V16">
+        <v>-11.8572267865101</v>
+      </c>
+      <c r="W16" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1605</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>-12.984419447815201</v>
+      </c>
+      <c r="I17">
+        <v>-13.0599653502212</v>
+      </c>
+      <c r="J17">
+        <v>-13.068436357395001</v>
+      </c>
+      <c r="K17">
+        <v>-11.2640747459848</v>
+      </c>
+      <c r="L17">
+        <v>-13.885584467129799</v>
+      </c>
+      <c r="M17">
+        <v>-10.624209707427299</v>
+      </c>
+      <c r="N17">
+        <v>-7.5545902406016399E-2</v>
+      </c>
+      <c r="O17">
+        <v>-8.4710071738565308E-3</v>
+      </c>
+      <c r="P17">
+        <v>8.4016909579872998E-2</v>
+      </c>
+      <c r="Q17">
+        <v>-2.6215097211450402</v>
+      </c>
+      <c r="R17">
+        <v>3.26137475970254</v>
+      </c>
+      <c r="S17">
+        <v>-0.63986503855750199</v>
+      </c>
+      <c r="T17">
+        <v>-12.0016581717635</v>
+      </c>
+      <c r="U17">
+        <v>-13.037109799610599</v>
+      </c>
+      <c r="V17">
+        <v>-11.4050694451848</v>
+      </c>
+      <c r="W17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1603</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>-10.949162123028801</v>
+      </c>
+      <c r="I18">
+        <v>-11.454667241857701</v>
+      </c>
+      <c r="J18">
+        <v>-10.7988860322517</v>
+      </c>
+      <c r="K18">
+        <v>-11.357722139636699</v>
+      </c>
+      <c r="L18">
+        <v>-12.5750611355147</v>
+      </c>
+      <c r="M18">
+        <v>-10.8354026050195</v>
+      </c>
+      <c r="N18">
+        <v>-0.50550511882890303</v>
+      </c>
+      <c r="O18">
+        <v>0.65578120960608099</v>
+      </c>
+      <c r="P18">
+        <v>-0.15027609077717799</v>
+      </c>
+      <c r="Q18">
+        <v>-1.2173389958779599</v>
+      </c>
+      <c r="R18">
+        <v>1.7396585304952299</v>
+      </c>
+      <c r="S18">
+        <v>-0.52231953461727498</v>
+      </c>
+      <c r="T18">
+        <v>-11.219827561322299</v>
+      </c>
+      <c r="U18">
+        <v>-11.041402050177499</v>
+      </c>
+      <c r="V18">
+        <v>-11.423475981848201</v>
+      </c>
+      <c r="X18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1612</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>-11.469420542396101</v>
+      </c>
+      <c r="I19">
+        <v>-11.6113897361657</v>
+      </c>
+      <c r="J19">
+        <v>-11.6858340894495</v>
+      </c>
+      <c r="K19">
+        <v>-11.597575323036899</v>
+      </c>
+      <c r="L19">
+        <v>-11.885584467129799</v>
+      </c>
+      <c r="M19">
+        <v>-11.1570137981942</v>
+      </c>
+      <c r="N19">
+        <v>-0.14196919376959799</v>
+      </c>
+      <c r="O19">
+        <v>-7.4444353283826106E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.216413547053424</v>
+      </c>
+      <c r="Q19">
+        <v>-0.28800914409292899</v>
+      </c>
+      <c r="R19">
+        <v>0.72857066893559896</v>
+      </c>
+      <c r="S19">
+        <v>-0.44056152484267003</v>
+      </c>
+      <c r="T19">
+        <v>-11.550226191156501</v>
+      </c>
+      <c r="U19">
+        <v>-11.5860688855894</v>
+      </c>
+      <c r="V19">
+        <v>-11.515252437454601</v>
+      </c>
+      <c r="X19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1643</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20">
+        <v>-13.8514770882846</v>
+      </c>
+      <c r="I20">
+        <v>-13.533710372343799</v>
+      </c>
+      <c r="J20">
+        <v>-13.7407104179696</v>
+      </c>
+      <c r="K20">
+        <v>-9.2288725878484303</v>
+      </c>
+      <c r="L20">
+        <v>-13.7574053962111</v>
+      </c>
+      <c r="M20">
+        <v>-8.8796858008601394</v>
+      </c>
+      <c r="N20">
+        <v>0.31776671594081501</v>
+      </c>
+      <c r="O20">
+        <v>-0.20700004562577501</v>
+      </c>
+      <c r="P20">
+        <v>-0.11076667031504001</v>
+      </c>
+      <c r="Q20">
+        <v>-4.5285328083626402</v>
+      </c>
+      <c r="R20">
+        <v>4.87771959535094</v>
+      </c>
+      <c r="S20">
+        <v>-0.34918678698829497</v>
+      </c>
+      <c r="T20">
+        <v>-10.519762238918499</v>
+      </c>
+      <c r="U20">
+        <v>-13.702564001472799</v>
+      </c>
+      <c r="V20">
+        <v>-9.6014705098845194</v>
+      </c>
+      <c r="W20" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>1630</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-18.2864479852648</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-16.758172657795502</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-17.828173259219898</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-12.0498836996695</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-18.087672792011201</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-11.5352402694113</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.52827532746929</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-1.0700006014243699</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-0.45827472604491998</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-6.0377890923416704</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6.5524325225998199</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-0.51464343025815096</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-13.305092616348499</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-17.4768123881625</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-12.345683354486001</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>1624</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-17.2188847014522</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-15.927191728256201</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-16.992984128965599</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-11.8724710258874</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-17.140914813288099</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-11.351787981379699</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.2916929731960001</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-1.06579240070939</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-0.22590057248661499</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-5.2684437874006997</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5.7891268319084803</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-0.52068304450777803</v>
+      </c>
+      <c r="T22" s="1">
+        <v>-13.0933781822509</v>
+      </c>
+      <c r="U22" s="1">
+        <v>-16.596685630034099</v>
+      </c>
+      <c r="V22" s="1">
+        <v>-12.1584359702674</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>1641</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-17.968477903946098</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-16.574618315923999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-17.546137891456102</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-12.4903143563767</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-17.7204638178229</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-12.0504607733466</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.39385958802215</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-0.97151957553205903</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-0.42234001249009101</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-5.2301494614462003</v>
+      </c>
+      <c r="R23" s="1">
+        <v>5.6700030444763696</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.43985358303016903</v>
+      </c>
+      <c r="T23" s="1">
+        <v>-13.756491947930799</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-17.2408022715797</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-12.822432077786701</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>1631</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-17.2864479852648</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-15.680551760673101</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-17.310324954357299</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-12.644816489145599</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-17.077256176065799</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-12.232132185353899</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.6058962245917601</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-1.6297731936842199</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2.3876969092460499E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-4.43243968692025</v>
+      </c>
+      <c r="R24" s="1">
+        <v>4.8451239907119303</v>
+      </c>
+      <c r="S24" s="1">
+        <v>-0.41268430379167997</v>
+      </c>
+      <c r="T24" s="1">
+        <v>-13.8630338102625</v>
+      </c>
+      <c r="U24" s="1">
+        <v>-16.5415883195591</v>
+      </c>
+      <c r="V24" s="1">
+        <v>-12.980349869660399</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>1614</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-15.066881608007099</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-13.6978297521049</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-14.886725441575001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-11.842329253693499</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-15.0643402881805</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-11.498240848703499</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.36905185590224</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-1.1888956894701199</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-0.18015616643212301</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-3.2220110344870299</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3.56609943947708</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-0.344088404990047</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-12.900696481705999</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-14.414276087900699</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-12.178441301789601</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1642</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26">
+        <v>-11.1706382565981</v>
+      </c>
+      <c r="I26">
+        <v>-11.185953287604599</v>
+      </c>
+      <c r="J26">
+        <v>-11.258317650888999</v>
+      </c>
+      <c r="K26">
+        <v>-8.2393150154632906</v>
+      </c>
+      <c r="L26">
+        <v>-11.418941933597401</v>
+      </c>
+      <c r="M26">
+        <v>-7.7390778996891001</v>
+      </c>
+      <c r="N26">
+        <v>-1.53150310064387E-2</v>
+      </c>
+      <c r="O26">
+        <v>-7.2364363284387903E-2</v>
+      </c>
+      <c r="P26">
+        <v>8.7679394290826496E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-3.1796269181341201</v>
+      </c>
+      <c r="R26">
+        <v>3.67986403390832</v>
+      </c>
+      <c r="S26">
+        <v>-0.50023711577419605</v>
+      </c>
+      <c r="T26">
+        <v>-9.2837636072319203</v>
+      </c>
+      <c r="U26">
+        <v>-11.204465841939401</v>
+      </c>
+      <c r="V26">
+        <v>-8.4881013043646192</v>
+      </c>
+      <c r="W26" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>1632</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-16.906416935813901</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-16.729461361154002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-16.811871446890802</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-12.546214901118301</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-16.4346460163449</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-12.1636833963929</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.17695557465988701</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-8.2410085736796604E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>-9.4545488923090101E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-3.8884311152265298</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4.2709626199519697</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-0.38253150472543002</v>
+      </c>
+      <c r="T27" s="1">
+        <v>-13.7938218798842</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-16.814108120448299</v>
+      </c>
+      <c r="V27" s="1">
+        <v>-12.8855889568901</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>1613</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-14.3861601244806</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-13.9864675375718</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-14.118932759725</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-11.797709174134701</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-14.224653694838601</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-11.2455464618279</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.39969258690876103</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-0.13246522215317899</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-0.26722736475558201</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-2.4269445207038598</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2.9791072330106698</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-0.55216271230680503</v>
+      </c>
+      <c r="T28" s="1">
+        <v>-12.6875941061005</v>
+      </c>
+      <c r="U28" s="1">
+        <v>-14.154433040301001</v>
+      </c>
+      <c r="V28" s="1">
+        <v>-11.9754598052478</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>1629</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-15.321454435092701</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-15.475934041064599</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-15.4141607653418</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-11.695210326159</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-15.5814874046741</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-11.0922636369431</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-0.15447960597185101</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6.17732757227639E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>9.2706330249087407E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-3.8862770785151199</v>
+      </c>
+      <c r="R29" s="1">
+        <v>4.4892237677310503</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-0.60294668921593497</v>
+      </c>
+      <c r="T29" s="1">
+        <v>-12.786460956247</v>
+      </c>
+      <c r="U29" s="1">
+        <v>-15.402448325702901</v>
+      </c>
+      <c r="V29" s="1">
+        <v>-11.9092042009531</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>1619</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-14.6883699847534</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-14.5091009049998</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-14.8138991282378</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-12.1976243320458</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-14.856347245904701</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-11.8460911689422</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.179269079753622</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-0.30479822323799799</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.12552914348437599</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-2.6587229138588899</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3.01025607696248</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-0.351533163103595</v>
+      </c>
+      <c r="T30" s="1">
+        <v>-13.208857361048199</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-14.665006819173399</v>
+      </c>
+      <c r="V30" s="1">
+        <v>-12.499094362392301</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1604</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31">
+        <v>-11.726403116747999</v>
+      </c>
+      <c r="I31">
+        <v>-10.9374163992667</v>
+      </c>
+      <c r="J31">
+        <v>-12.2600443956084</v>
+      </c>
+      <c r="K31">
+        <v>-12.0399818417128</v>
+      </c>
+      <c r="L31">
+        <v>-13.3784141270148</v>
+      </c>
+      <c r="M31">
+        <v>-11.602687902595999</v>
+      </c>
+      <c r="N31">
+        <v>0.78898671748134996</v>
+      </c>
+      <c r="O31">
+        <v>-1.32262799634178</v>
+      </c>
+      <c r="P31">
+        <v>0.533641278860427</v>
+      </c>
+      <c r="Q31">
+        <v>-1.3384322853019901</v>
+      </c>
+      <c r="R31">
+        <v>1.7757262244187999</v>
+      </c>
+      <c r="S31">
+        <v>-0.43729393911680497</v>
+      </c>
+      <c r="T31">
+        <v>-11.8179626665138</v>
+      </c>
+      <c r="U31">
+        <v>-11.5379306872453</v>
+      </c>
+      <c r="V31">
+        <v>-12.165768616094899</v>
+      </c>
+      <c r="X31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1607</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32">
+        <v>-10.3606598636737</v>
+      </c>
+      <c r="I32">
+        <v>-9.4878597207658206</v>
+      </c>
+      <c r="J32">
+        <v>-11.138810556432899</v>
+      </c>
+      <c r="K32">
+        <v>-11.822956280364201</v>
+      </c>
+      <c r="L32">
+        <v>-10.9291179831181</v>
+      </c>
+      <c r="M32">
+        <v>-11.4986423222112</v>
+      </c>
+      <c r="N32">
+        <v>0.87280014290785202</v>
+      </c>
+      <c r="O32">
+        <v>-1.6509508356670499</v>
+      </c>
+      <c r="P32">
+        <v>0.77815069275919602</v>
+      </c>
+      <c r="Q32">
+        <v>0.89383829724609598</v>
+      </c>
+      <c r="R32">
+        <v>-0.56952433909313804</v>
+      </c>
+      <c r="S32">
+        <v>-0.32431395815295699</v>
+      </c>
+      <c r="T32">
+        <v>-10.651082737227901</v>
+      </c>
+      <c r="U32">
+        <v>-10.174020937884601</v>
+      </c>
+      <c r="V32">
+        <v>-11.368716511358899</v>
+      </c>
+      <c r="W32" t="s">
+        <v>50</v>
+      </c>
+      <c r="X32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1610</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33">
+        <v>-10.3781581930555</v>
+      </c>
+      <c r="I33">
+        <v>-9.7208809498001205</v>
+      </c>
+      <c r="J33">
+        <v>-10.915419981370899</v>
+      </c>
+      <c r="K33">
+        <v>-11.600968190478801</v>
+      </c>
+      <c r="L33">
+        <v>-12.2840563924936</v>
+      </c>
+      <c r="M33">
+        <v>-11.0859154662271</v>
+      </c>
+      <c r="N33">
+        <v>0.65727724325536296</v>
+      </c>
+      <c r="O33">
+        <v>-1.19453903157073</v>
+      </c>
+      <c r="P33">
+        <v>0.53726178831536797</v>
+      </c>
+      <c r="Q33">
+        <v>-0.68308820201485598</v>
+      </c>
+      <c r="R33">
+        <v>1.1981409262665099</v>
+      </c>
+      <c r="S33">
+        <v>-0.51505272425165605</v>
+      </c>
+      <c r="T33">
+        <v>-10.7697432837849</v>
+      </c>
+      <c r="U33">
+        <v>-10.2555159878331</v>
+      </c>
+      <c r="V33">
+        <v>-11.5762338762565</v>
+      </c>
+      <c r="W33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1602</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34">
+        <v>-7.3544557605938898</v>
+      </c>
+      <c r="I34">
+        <v>-7.7223304992605399</v>
+      </c>
+      <c r="J34">
+        <v>-7.5763143273259601</v>
+      </c>
+      <c r="K34">
+        <v>-10.472447935583199</v>
+      </c>
+      <c r="L34">
+        <v>-7.6741828297113397</v>
+      </c>
+      <c r="M34">
+        <v>-10.420301719829</v>
+      </c>
+      <c r="N34">
+        <v>-0.36787473866665199</v>
+      </c>
+      <c r="O34">
+        <v>0.14601617193458599</v>
+      </c>
+      <c r="P34">
+        <v>0.221858566732066</v>
+      </c>
+      <c r="Q34">
+        <v>2.7982651058718901</v>
+      </c>
+      <c r="R34">
+        <v>-2.7461188901176801</v>
+      </c>
+      <c r="S34">
+        <v>-5.2146215754210301E-2</v>
+      </c>
+      <c r="T34">
+        <v>-8.0643414345757094</v>
+      </c>
+      <c r="U34">
+        <v>-7.5430486850938898</v>
+      </c>
+      <c r="V34">
+        <v>-8.8886335136158703</v>
+      </c>
+      <c r="W34" t="s">
+        <v>50</v>
+      </c>
+      <c r="X34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1673</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35">
+        <v>-12.452171763891901</v>
+      </c>
+      <c r="I35">
+        <v>-12.0003345837289</v>
+      </c>
+      <c r="J35">
+        <v>-12.6724350640136</v>
+      </c>
+      <c r="K35">
+        <v>-12.252975565047</v>
+      </c>
+      <c r="L35">
+        <v>-13.716416984760199</v>
+      </c>
+      <c r="M35">
+        <v>-11.903410536794601</v>
+      </c>
+      <c r="N35">
+        <v>0.45183718016306601</v>
+      </c>
+      <c r="O35">
+        <v>-0.67210048028473202</v>
+      </c>
+      <c r="P35">
+        <v>0.22026330012166701</v>
+      </c>
+      <c r="Q35">
+        <v>-1.4634414197132299</v>
+      </c>
+      <c r="R35">
+        <v>1.81300644796568</v>
+      </c>
+      <c r="S35">
+        <v>-0.349565028252454</v>
+      </c>
+      <c r="T35">
+        <v>-12.392494746589399</v>
+      </c>
+      <c r="U35">
+        <v>-12.347302998664899</v>
+      </c>
+      <c r="V35">
+        <v>-12.4391480095377</v>
+      </c>
+      <c r="X35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1675</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36">
+        <v>-10.5178104531079</v>
+      </c>
+      <c r="I36">
+        <v>-9.6519089433308292</v>
+      </c>
+      <c r="J36">
+        <v>-9.7486884753930898</v>
+      </c>
+      <c r="K36">
+        <v>-11.299074455365201</v>
+      </c>
+      <c r="L36">
+        <v>-11.121721248054801</v>
+      </c>
+      <c r="M36">
+        <v>-11.024502353711901</v>
+      </c>
+      <c r="N36">
+        <v>0.86590150977706504</v>
+      </c>
+      <c r="O36">
+        <v>-9.6779532062256104E-2</v>
+      </c>
+      <c r="P36">
+        <v>-0.76912197771480895</v>
+      </c>
+      <c r="Q36">
+        <v>0.177353207310393</v>
+      </c>
+      <c r="R36">
+        <v>9.7218894342919707E-2</v>
+      </c>
+      <c r="S36">
+        <v>-0.27457210165331303</v>
+      </c>
+      <c r="T36">
+        <v>-10.408924824768199</v>
+      </c>
+      <c r="U36">
+        <v>-9.9243099374100296</v>
+      </c>
+      <c r="V36">
+        <v>-11.1439976678653</v>
+      </c>
+      <c r="W36" t="s">
+        <v>50</v>
+      </c>
+      <c r="X36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1672</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37">
+        <v>-9.7575256342437804</v>
+      </c>
+      <c r="I37">
+        <v>-9.57008709406111</v>
+      </c>
+      <c r="J37">
+        <v>-9.7419163822969903</v>
+      </c>
+      <c r="K37">
+        <v>-10.912861997762899</v>
+      </c>
+      <c r="L37">
+        <v>-9.4875444131028104</v>
+      </c>
+      <c r="M37">
+        <v>-10.684134991742299</v>
+      </c>
+      <c r="N37">
+        <v>0.187438540182673</v>
+      </c>
+      <c r="O37">
+        <v>-0.17182928823588201</v>
+      </c>
+      <c r="P37">
+        <v>-1.5609251946791001E-2</v>
+      </c>
+      <c r="Q37">
+        <v>1.4253175846600501</v>
+      </c>
+      <c r="R37">
+        <v>-1.1965905786395199</v>
+      </c>
+      <c r="S37">
+        <v>-0.228727006020532</v>
+      </c>
+      <c r="T37">
+        <v>-9.9282266551443996</v>
+      </c>
+      <c r="U37">
+        <v>-9.6873111009899393</v>
+      </c>
+      <c r="V37">
+        <v>-10.2175996062034</v>
+      </c>
+      <c r="X37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1646</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38">
+        <v>-12.859723700365899</v>
+      </c>
+      <c r="I38">
+        <v>-12.8830446245718</v>
+      </c>
+      <c r="J38">
+        <v>-12.8307371394769</v>
+      </c>
+      <c r="K38">
+        <v>-13.071237577629899</v>
+      </c>
+      <c r="L38">
+        <v>-12.7931852252143</v>
+      </c>
+      <c r="M38">
+        <v>-13.1893776648715</v>
+      </c>
+      <c r="N38">
+        <v>-2.3320924205951402E-2</v>
+      </c>
+      <c r="O38">
+        <v>5.23074850949454E-2</v>
+      </c>
+      <c r="P38">
+        <v>-2.89865608889938E-2</v>
+      </c>
+      <c r="Q38">
+        <v>0.27805235241554199</v>
+      </c>
+      <c r="R38">
+        <v>-0.39619243965710899</v>
+      </c>
+      <c r="S38">
+        <v>0.11814008724156699</v>
+      </c>
+      <c r="T38">
+        <v>-12.9309884970456</v>
+      </c>
+      <c r="U38">
+        <v>-12.8576763960496</v>
+      </c>
+      <c r="V38">
+        <v>-13.0082264159171</v>
+      </c>
+      <c r="X38" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1647</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39">
+        <v>-14.3050957464931</v>
+      </c>
+      <c r="I39">
+        <v>-14.2236204806874</v>
+      </c>
+      <c r="J39">
+        <v>-14.587165159716101</v>
+      </c>
+      <c r="K39">
+        <v>-14.0725827479286</v>
+      </c>
+      <c r="L39">
+        <v>-13.4230580420696</v>
+      </c>
+      <c r="M39">
+        <v>-13.339509651601199</v>
+      </c>
+      <c r="N39">
+        <v>8.1475265805658503E-2</v>
+      </c>
+      <c r="O39">
+        <v>-0.36354467902869803</v>
+      </c>
+      <c r="P39">
+        <v>0.28206941322303902</v>
+      </c>
+      <c r="Q39">
+        <v>0.64952470585898503</v>
+      </c>
+      <c r="R39">
+        <v>8.3548390468417694E-2</v>
+      </c>
+      <c r="S39">
+        <v>-0.73307309632740303</v>
+      </c>
+      <c r="T39">
+        <v>-13.9171408655866</v>
+      </c>
+      <c r="U39">
+        <v>-14.3637339941039</v>
+      </c>
+      <c r="V39">
+        <v>-13.576605466050101</v>
+      </c>
+      <c r="X39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>1648</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40">
+        <v>-13.718882534778199</v>
+      </c>
+      <c r="I40">
+        <v>-13.390576812020999</v>
+      </c>
+      <c r="J40">
+        <v>-13.9212826636114</v>
+      </c>
+      <c r="K40">
+        <v>-13.345881644085299</v>
+      </c>
+      <c r="L40">
+        <v>-11.953320881622901</v>
+      </c>
+      <c r="M40">
+        <v>-12.811763705262299</v>
+      </c>
+      <c r="N40">
+        <v>0.32830572275721498</v>
+      </c>
+      <c r="O40">
+        <v>-0.53070585159039696</v>
+      </c>
+      <c r="P40">
+        <v>0.20240012883318301</v>
+      </c>
+      <c r="Q40">
+        <v>1.3925607624623999</v>
+      </c>
+      <c r="R40">
+        <v>-0.85844282363935398</v>
+      </c>
+      <c r="S40">
+        <v>-0.53411793882304903</v>
+      </c>
+      <c r="T40">
+        <v>-13.0265973863889</v>
+      </c>
+      <c r="U40">
+        <v>-13.660154357664799</v>
+      </c>
+      <c r="V40">
+        <v>-12.5878629851667</v>
+      </c>
+      <c r="W40" t="s">
+        <v>88</v>
+      </c>
+      <c r="X40" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1670</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H41">
+        <v>-10.044056905102799</v>
+      </c>
+      <c r="I41">
+        <v>-9.3343124305387803</v>
+      </c>
+      <c r="J41">
+        <v>-10.752937233264801</v>
+      </c>
+      <c r="K41">
+        <v>-11.5792948478597</v>
+      </c>
+      <c r="L41">
+        <v>-11.839195156524401</v>
+      </c>
+      <c r="M41">
+        <v>-11.196524558770999</v>
+      </c>
+      <c r="N41">
+        <v>0.70974447456407197</v>
+      </c>
+      <c r="O41">
+        <v>-1.41862480272603</v>
+      </c>
+      <c r="P41">
+        <v>0.70888032816195401</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25990030866463198</v>
+      </c>
+      <c r="R41">
+        <v>0.64267059775332402</v>
+      </c>
+      <c r="S41">
+        <v>-0.38277028908869198</v>
+      </c>
+      <c r="T41">
+        <v>-10.514542199436599</v>
+      </c>
+      <c r="U41">
+        <v>-9.9297746533831504</v>
+      </c>
+      <c r="V41">
+        <v>-11.5139574934517</v>
+      </c>
+      <c r="W41" t="s">
+        <v>50</v>
+      </c>
+      <c r="X41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1600</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42">
+        <v>-14.819847680867101</v>
+      </c>
+      <c r="I42">
+        <v>-14.5213531658238</v>
+      </c>
+      <c r="J42">
+        <v>-15.0444308943843</v>
+      </c>
+      <c r="K42">
+        <v>-12.6072904778701</v>
+      </c>
+      <c r="L42">
+        <v>-14.4699790894571</v>
+      </c>
+      <c r="M42">
+        <v>-11.9259112497394</v>
+      </c>
+      <c r="N42">
+        <v>0.29849451504325403</v>
+      </c>
+      <c r="O42">
+        <v>-0.52307772856044399</v>
+      </c>
+      <c r="P42">
+        <v>0.22458321351718899</v>
+      </c>
+      <c r="Q42">
+        <v>-1.86268861158705</v>
+      </c>
+      <c r="R42">
+        <v>2.5440678397177798</v>
+      </c>
+      <c r="S42">
+        <v>-0.68137922813073504</v>
+      </c>
+      <c r="T42">
+        <v>-13.366719436870399</v>
+      </c>
+      <c r="U42">
+        <v>-14.779211162571199</v>
+      </c>
+      <c r="V42">
+        <v>-12.6668678434428</v>
+      </c>
+      <c r="W42" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Y35" xr:uid="{756D4C88-9AC6-4492-940B-6885E5D0FF79}">
+    <sortState ref="A2:Y35">
+      <sortCondition ref="E1:E35"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:Y36">
+    <sortCondition ref="F2:F36"/>
+    <sortCondition ref="E2:E36"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4130812-1D7D-4BBE-9BF0-3EC65F880BCE}">
+  <dimension ref="A1:Y81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" customWidth="1"/>
     <col min="5" max="5" width="116.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="141.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
@@ -7030,7 +13157,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -12894,7 +19021,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y81" xr:uid="{756D4C88-9AC6-4492-940B-6885E5D0FF79}"/>
+  <autoFilter ref="A1:Y81" xr:uid="{756D4C88-9AC6-4492-940B-6885E5D0FF79}">
+    <sortState ref="A2:Y81">
+      <sortCondition ref="A1:A81"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
